--- a/src/test/resources/testData/Master_Sheet.xlsx
+++ b/src/test/resources/testData/Master_Sheet.xlsx
@@ -339,15 +339,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8A1B2AD5-57E8-439D-A9C6-169FE0F5F1D9}" diskRevisions="1" revisionId="74" version="18">
-  <header guid="{CABCB445-78FC-476A-9E38-36324F64E669}" dateTime="2019-09-15T09:40:32" maxSheetId="6" userName="admin" r:id="rId5" minRId="45">
-    <sheetIdMap count="5">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
   <header guid="{9FFD20FF-F1E3-404F-AAD8-37A47E594243}" dateTime="2019-09-22T09:52:53" maxSheetId="6" userName="admin" r:id="rId6" minRId="46" maxRId="50">
     <sheetIdMap count="5">
       <sheetId val="1"/>
@@ -651,23 +642,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="45" sId="2">
-    <oc r="A1" t="inlineStr">
-      <is>
-        <t>TC001_Create_an_Account</t>
-      </is>
-    </oc>
-    <nc r="A1" t="inlineStr">
-      <is>
-        <t>loginToApplication</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="46" sId="1" ref="A7:XFD7" action="deleteRow">
@@ -884,9 +858,7 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{8A1B2AD5-57E8-439D-A9C6-169FE0F5F1D9}" name="admin" id="-953933591" dateTime="2019-10-13T13:05:18"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
